--- a/testdata/Hospitaldata.xlsx
+++ b/testdata/Hospitaldata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="35">
   <si>
     <t>Piles</t>
   </si>
@@ -236,10 +236,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -1709,7 +1784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A2ED38-4113-4C09-85FF-3D62ADED95AB}" name="Table1" displayName="Table1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
   <autoFilter ref="A1:A7" xr:uid="{E0A2ED38-4113-4C09-85FF-3D62ADED95AB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CC197DF7-2B27-4D0D-B37A-4B4F0B57DA52}" name="Dr. Ganesh Nallur Shivu_x000a_Cardiologist_x000a_23 years experience overall_x000a_Electronics City,Bangalore _x000a_Kauvery Hospitals_x000a_₹900 Consultation fee at clinic_x000a_96% 15 Patient Stories" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CC197DF7-2B27-4D0D-B37A-4B4F0B57DA52}" name="Dr. G Vivek_x000a_Cardiologist_x000a_20 years experience overall_x000a_Electronics City,Bangalore _x000a_Kauvery Hospitals + 1 more_x000a_₹900 Consultation fee at clinic_x000a_99% 53 Patient Stories" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2034,32 +2109,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="453">
+      <c r="A1" t="s" s="478">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="479">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="480">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="481">
         <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="454">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="455">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="456">
-        <v>22</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" t="s" s="457">
+      <c r="A5" t="s" s="482">
         <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="458">
+      <c r="A6" t="s" s="483">
         <v>32</v>
       </c>
     </row>
@@ -2088,97 +2163,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="459">
+      <c r="A1" t="s" s="484">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="460">
+      <c r="A2" t="s" s="485">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="461">
+      <c r="A3" t="s" s="486">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="462">
+      <c r="A4" t="s" s="487">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="463">
+      <c r="A5" t="s" s="488">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="464">
+      <c r="A6" t="s" s="489">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="465">
+      <c r="A7" t="s" s="490">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="466">
+      <c r="A8" t="s" s="491">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="467">
+      <c r="A9" t="s" s="492">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="468">
+      <c r="A10" t="s" s="493">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="469">
+      <c r="A11" t="s" s="494">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="470">
+      <c r="A12" t="s" s="495">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="471">
+      <c r="A13" t="s" s="496">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="472">
+      <c r="A14" t="s" s="497">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="473">
+      <c r="A15" t="s" s="498">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="474">
+      <c r="A16" t="s" s="499">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="475">
+      <c r="A17" t="s" s="500">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="476">
+      <c r="A18" t="s" s="501">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="477">
+      <c r="A19" t="s" s="502">
         <v>18</v>
       </c>
     </row>

--- a/testdata/Hospitaldata.xlsx
+++ b/testdata/Hospitaldata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="36">
   <si>
     <t>Piles</t>
   </si>
@@ -200,6 +200,14 @@
 Hebbal,Bangalore  Manipal Hospital + 1 more
 ₹1000 Consultation fee at clinic
 100% 35 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Roopa. R
+Cardiologist
+25 years experience overall
+Banashankari 2nd Stage,Bangalore  Heart Care Clinic + 1 more
+₹700 Consultation fee at clinic
+95% 89 Patient Stories</t>
   </si>
 </sst>
 </file>
@@ -236,10 +244,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
@@ -1784,7 +1924,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A2ED38-4113-4C09-85FF-3D62ADED95AB}" name="Table1" displayName="Table1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
   <autoFilter ref="A1:A7" xr:uid="{E0A2ED38-4113-4C09-85FF-3D62ADED95AB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CC197DF7-2B27-4D0D-B37A-4B4F0B57DA52}" name="Dr. G Vivek_x000a_Cardiologist_x000a_20 years experience overall_x000a_Electronics City,Bangalore _x000a_Kauvery Hospitals + 1 more_x000a_₹900 Consultation fee at clinic_x000a_99% 53 Patient Stories" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CC197DF7-2B27-4D0D-B37A-4B4F0B57DA52}" name="Dr. Jai Babu_x000a_Cardiologist_x000a_21 years experience overall_x000a_HBR Layout,Bangalore _x000a_Altius Hospitals + 1 more_x000a_₹1000 Consultation fee at clinic_x000a_96% 39 Patient Stories" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2103,39 +2243,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="42.51171875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.94140625"/>
     <col min="2" max="2" customWidth="true" width="11.90625"/>
     <col min="3" max="3" customWidth="true" width="16.81640625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="478">
+      <c r="A1" t="s" s="522">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="523">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="524">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="479">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="480">
-        <v>20</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" t="s" s="481">
+      <c r="A4" t="s" s="525">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="482">
-        <v>31</v>
+      <c r="A5" t="s" s="526">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="483">
-        <v>32</v>
+      <c r="A6" t="s" s="527">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
@@ -2163,97 +2303,97 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="484">
+      <c r="A1" t="s" s="528">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="485">
+      <c r="A2" t="s" s="529">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="486">
+      <c r="A3" t="s" s="530">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="487">
+      <c r="A4" t="s" s="531">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="488">
+      <c r="A5" t="s" s="532">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="489">
+      <c r="A6" t="s" s="533">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="490">
+      <c r="A7" t="s" s="534">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="491">
+      <c r="A8" t="s" s="535">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="492">
+      <c r="A9" t="s" s="536">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="493">
+      <c r="A10" t="s" s="537">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="494">
+      <c r="A11" t="s" s="538">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="495">
+      <c r="A12" t="s" s="539">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="496">
+      <c r="A13" t="s" s="540">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="497">
+      <c r="A14" t="s" s="541">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="498">
+      <c r="A15" t="s" s="542">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="499">
+      <c r="A16" t="s" s="543">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="500">
+      <c r="A17" t="s" s="544">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="501">
+      <c r="A18" t="s" s="545">
         <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="502">
+      <c r="A19" t="s" s="546">
         <v>18</v>
       </c>
     </row>
